--- a/testFile/case/login.xlsx
+++ b/testFile/case/login.xlsx
@@ -16,42 +16,300 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="398">
   <si>
     <t>username</t>
   </si>
   <si>
-    <t>ttu10010</t>
-  </si>
-  <si>
-    <t>ttu10011</t>
-  </si>
-  <si>
-    <t>ttu10012</t>
-  </si>
-  <si>
-    <t>ttu10013</t>
-  </si>
-  <si>
-    <t>ttu10014</t>
-  </si>
-  <si>
-    <t>ttu10015</t>
-  </si>
-  <si>
-    <t>ttu10016</t>
-  </si>
-  <si>
-    <t>ttu10017</t>
-  </si>
-  <si>
-    <t>ttu10018</t>
-  </si>
-  <si>
-    <t>ttu10019</t>
-  </si>
-  <si>
-    <t>ttu10020</t>
+    <t>eeta6</t>
+  </si>
+  <si>
+    <t>eeta7</t>
+  </si>
+  <si>
+    <t>eeta1</t>
+  </si>
+  <si>
+    <t>eeta2</t>
+  </si>
+  <si>
+    <t>eeta3</t>
+  </si>
+  <si>
+    <t>eeta5</t>
+  </si>
+  <si>
+    <t>eeta8</t>
+  </si>
+  <si>
+    <t>eeta9</t>
+  </si>
+  <si>
+    <t>eeta10</t>
+  </si>
+  <si>
+    <t>eeta11</t>
+  </si>
+  <si>
+    <t>eeta12</t>
+  </si>
+  <si>
+    <t>eeta13</t>
+  </si>
+  <si>
+    <t>eeta14</t>
+  </si>
+  <si>
+    <t>eeta15</t>
+  </si>
+  <si>
+    <t>eeta16</t>
+  </si>
+  <si>
+    <t>eeta17</t>
+  </si>
+  <si>
+    <t>eeta18</t>
+  </si>
+  <si>
+    <t>eeta19</t>
+  </si>
+  <si>
+    <t>eeta20</t>
+  </si>
+  <si>
+    <t>eeta21</t>
+  </si>
+  <si>
+    <t>eeta22</t>
+  </si>
+  <si>
+    <t>eeta23</t>
+  </si>
+  <si>
+    <t>eeta24</t>
+  </si>
+  <si>
+    <t>eeta25</t>
+  </si>
+  <si>
+    <t>eeta26</t>
+  </si>
+  <si>
+    <t>eeta27</t>
+  </si>
+  <si>
+    <t>eeta28</t>
+  </si>
+  <si>
+    <t>eeta29</t>
+  </si>
+  <si>
+    <t>eeta30</t>
+  </si>
+  <si>
+    <t>eeta31</t>
+  </si>
+  <si>
+    <t>eeta32</t>
+  </si>
+  <si>
+    <t>eeta33</t>
+  </si>
+  <si>
+    <t>eeta34</t>
+  </si>
+  <si>
+    <t>eeta35</t>
+  </si>
+  <si>
+    <t>eeta36</t>
+  </si>
+  <si>
+    <t>eeta37</t>
+  </si>
+  <si>
+    <t>eeta38</t>
+  </si>
+  <si>
+    <t>eeta39</t>
+  </si>
+  <si>
+    <t>eeta40</t>
+  </si>
+  <si>
+    <t>eeta41</t>
+  </si>
+  <si>
+    <t>eeta42</t>
+  </si>
+  <si>
+    <t>eeta43</t>
+  </si>
+  <si>
+    <t>eeta44</t>
+  </si>
+  <si>
+    <t>eeta45</t>
+  </si>
+  <si>
+    <t>eeta46</t>
+  </si>
+  <si>
+    <t>eeta47</t>
+  </si>
+  <si>
+    <t>eeta48</t>
+  </si>
+  <si>
+    <t>eeta49</t>
+  </si>
+  <si>
+    <t>eeta50</t>
+  </si>
+  <si>
+    <t>eeta53</t>
+  </si>
+  <si>
+    <t>eeta54</t>
+  </si>
+  <si>
+    <t>eeta55</t>
+  </si>
+  <si>
+    <t>eeta56</t>
+  </si>
+  <si>
+    <t>eeta57</t>
+  </si>
+  <si>
+    <t>eeta58</t>
+  </si>
+  <si>
+    <t>eeta59</t>
+  </si>
+  <si>
+    <t>eeta60</t>
+  </si>
+  <si>
+    <t>eeta61</t>
+  </si>
+  <si>
+    <t>eeta62</t>
+  </si>
+  <si>
+    <t>eeta63</t>
+  </si>
+  <si>
+    <t>eeta64</t>
+  </si>
+  <si>
+    <t>eeta65</t>
+  </si>
+  <si>
+    <t>eeta66</t>
+  </si>
+  <si>
+    <t>eeta67</t>
+  </si>
+  <si>
+    <t>eeta68</t>
+  </si>
+  <si>
+    <t>eeta69</t>
+  </si>
+  <si>
+    <t>eeta70</t>
+  </si>
+  <si>
+    <t>eeta71</t>
+  </si>
+  <si>
+    <t>eeta72</t>
+  </si>
+  <si>
+    <t>eeta73</t>
+  </si>
+  <si>
+    <t>eeta74</t>
+  </si>
+  <si>
+    <t>eeta75</t>
+  </si>
+  <si>
+    <t>eeta76</t>
+  </si>
+  <si>
+    <t>eeta77</t>
+  </si>
+  <si>
+    <t>eeta78</t>
+  </si>
+  <si>
+    <t>eeta79</t>
+  </si>
+  <si>
+    <t>eeta80</t>
+  </si>
+  <si>
+    <t>eeta81</t>
+  </si>
+  <si>
+    <t>eeta82</t>
+  </si>
+  <si>
+    <t>eeta83</t>
+  </si>
+  <si>
+    <t>eeta84</t>
+  </si>
+  <si>
+    <t>eeta85</t>
+  </si>
+  <si>
+    <t>eeta86</t>
+  </si>
+  <si>
+    <t>eeta87</t>
+  </si>
+  <si>
+    <t>eeta88</t>
+  </si>
+  <si>
+    <t>eeta89</t>
+  </si>
+  <si>
+    <t>eeta90</t>
+  </si>
+  <si>
+    <t>eeta91</t>
+  </si>
+  <si>
+    <t>eeta92</t>
+  </si>
+  <si>
+    <t>eeta93</t>
+  </si>
+  <si>
+    <t>eeta94</t>
+  </si>
+  <si>
+    <t>eeta95</t>
+  </si>
+  <si>
+    <t>eeta96</t>
+  </si>
+  <si>
+    <t>eeta97</t>
+  </si>
+  <si>
+    <t>eeta98</t>
+  </si>
+  <si>
+    <t>eeta99</t>
+  </si>
+  <si>
+    <t>eeta100</t>
   </si>
   <si>
     <t>mq0001</t>
@@ -60,322 +318,622 @@
     <t>mq0002</t>
   </si>
   <si>
+    <t>v210001</t>
+  </si>
+  <si>
     <t>mq0003</t>
   </si>
   <si>
+    <t>v210002</t>
+  </si>
+  <si>
     <t>mq0004</t>
   </si>
   <si>
+    <t>v210003</t>
+  </si>
+  <si>
     <t>mq0005</t>
   </si>
   <si>
+    <t>v210004</t>
+  </si>
+  <si>
     <t>mq0006</t>
   </si>
   <si>
+    <t>v210005</t>
+  </si>
+  <si>
     <t>mq0007</t>
   </si>
   <si>
+    <t>v210006</t>
+  </si>
+  <si>
     <t>mq0008</t>
   </si>
   <si>
+    <t>v210007</t>
+  </si>
+  <si>
     <t>mq0009</t>
   </si>
   <si>
+    <t>v210008</t>
+  </si>
+  <si>
     <t>mq0010</t>
   </si>
   <si>
+    <t>v210009</t>
+  </si>
+  <si>
     <t>mq0011</t>
   </si>
   <si>
+    <t>v210010</t>
+  </si>
+  <si>
     <t>mq0012</t>
   </si>
   <si>
+    <t>v210011</t>
+  </si>
+  <si>
     <t>mq0014</t>
   </si>
   <si>
     <t>mq0013</t>
   </si>
   <si>
+    <t>v210012</t>
+  </si>
+  <si>
     <t>mq0015</t>
   </si>
   <si>
+    <t>v210013</t>
+  </si>
+  <si>
     <t>mq0016</t>
   </si>
   <si>
+    <t>v210014</t>
+  </si>
+  <si>
     <t>mq0017</t>
   </si>
   <si>
+    <t>v210015</t>
+  </si>
+  <si>
     <t>mq0018</t>
   </si>
   <si>
+    <t>v210016</t>
+  </si>
+  <si>
     <t>mq0019</t>
   </si>
   <si>
+    <t>v210017</t>
+  </si>
+  <si>
     <t>mq0022</t>
   </si>
   <si>
+    <t>v210018</t>
+  </si>
+  <si>
     <t>mq0023</t>
   </si>
   <si>
     <t>mq0020</t>
   </si>
   <si>
+    <t>v210019</t>
+  </si>
+  <si>
     <t>mq0024</t>
   </si>
   <si>
     <t>mq0021</t>
   </si>
   <si>
+    <t>v210020</t>
+  </si>
+  <si>
     <t>mq0025</t>
   </si>
   <si>
+    <t>v210021</t>
+  </si>
+  <si>
     <t>mq0026</t>
   </si>
   <si>
+    <t>v210022</t>
+  </si>
+  <si>
     <t>mq0027</t>
   </si>
   <si>
+    <t>v210023</t>
+  </si>
+  <si>
     <t>mq0028</t>
   </si>
   <si>
+    <t>v210024</t>
+  </si>
+  <si>
     <t>mq0029</t>
   </si>
   <si>
+    <t>v210025</t>
+  </si>
+  <si>
     <t>mq0030</t>
   </si>
   <si>
+    <t>v210026</t>
+  </si>
+  <si>
     <t>mq0031</t>
   </si>
   <si>
+    <t>v210027</t>
+  </si>
+  <si>
     <t>mq0032</t>
   </si>
   <si>
+    <t>v210028</t>
+  </si>
+  <si>
     <t>mq0033</t>
   </si>
   <si>
+    <t>v210029</t>
+  </si>
+  <si>
     <t>mq0034</t>
   </si>
   <si>
+    <t>v210030</t>
+  </si>
+  <si>
     <t>mq0035</t>
   </si>
   <si>
+    <t>v210031</t>
+  </si>
+  <si>
     <t>mq0036</t>
   </si>
   <si>
+    <t>v210032</t>
+  </si>
+  <si>
     <t>mq0037</t>
   </si>
   <si>
+    <t>v210033</t>
+  </si>
+  <si>
     <t>mq0038</t>
   </si>
   <si>
+    <t>v210034</t>
+  </si>
+  <si>
     <t>mq0039</t>
   </si>
   <si>
+    <t>v210035</t>
+  </si>
+  <si>
     <t>mq0040</t>
   </si>
   <si>
+    <t>v210036</t>
+  </si>
+  <si>
     <t>mq0041</t>
   </si>
   <si>
+    <t>v210037</t>
+  </si>
+  <si>
     <t>mq0042</t>
   </si>
   <si>
+    <t>v210038</t>
+  </si>
+  <si>
     <t>mq0043</t>
   </si>
   <si>
+    <t>v210039</t>
+  </si>
+  <si>
     <t>mq0045</t>
   </si>
   <si>
+    <t>v210040</t>
+  </si>
+  <si>
     <t>mq0046</t>
   </si>
   <si>
+    <t>v210041</t>
+  </si>
+  <si>
     <t>mq0047</t>
   </si>
   <si>
+    <t>v210042</t>
+  </si>
+  <si>
     <t>mq0048</t>
   </si>
   <si>
     <t>mq0044</t>
   </si>
   <si>
+    <t>v210043</t>
+  </si>
+  <si>
     <t>mq0049</t>
   </si>
   <si>
+    <t>v210044</t>
+  </si>
+  <si>
     <t>mq0050</t>
   </si>
   <si>
+    <t>v210045</t>
+  </si>
+  <si>
     <t>mq0051</t>
   </si>
   <si>
+    <t>v210046</t>
+  </si>
+  <si>
     <t>mq0052</t>
   </si>
   <si>
+    <t>v210047</t>
+  </si>
+  <si>
     <t>mq0053</t>
   </si>
   <si>
+    <t>v210048</t>
+  </si>
+  <si>
     <t>mq0054</t>
   </si>
   <si>
+    <t>v210049</t>
+  </si>
+  <si>
     <t>mq0055</t>
   </si>
   <si>
+    <t>v210050</t>
+  </si>
+  <si>
     <t>mq0056</t>
   </si>
   <si>
+    <t>v210051</t>
+  </si>
+  <si>
     <t>mq0057</t>
   </si>
   <si>
+    <t>v210052</t>
+  </si>
+  <si>
     <t>mq0058</t>
   </si>
   <si>
+    <t>v210053</t>
+  </si>
+  <si>
     <t>mq0059</t>
   </si>
   <si>
+    <t>v210054</t>
+  </si>
+  <si>
     <t>mq0060</t>
   </si>
   <si>
+    <t>v210055</t>
+  </si>
+  <si>
     <t>mq0061</t>
   </si>
   <si>
+    <t>v210056</t>
+  </si>
+  <si>
     <t>mq0062</t>
   </si>
   <si>
+    <t>v210057</t>
+  </si>
+  <si>
     <t>mq0063</t>
   </si>
   <si>
+    <t>v210058</t>
+  </si>
+  <si>
     <t>mq0064</t>
   </si>
   <si>
+    <t>v210059</t>
+  </si>
+  <si>
     <t>mq0067</t>
   </si>
   <si>
+    <t>v210060</t>
+  </si>
+  <si>
     <t>mq0068</t>
   </si>
   <si>
+    <t>v210061</t>
+  </si>
+  <si>
     <t>mq0069</t>
   </si>
   <si>
+    <t>v210062</t>
+  </si>
+  <si>
     <t>mq0070</t>
   </si>
   <si>
+    <t>v210063</t>
+  </si>
+  <si>
     <t>mq0071</t>
   </si>
   <si>
     <t>mq0065</t>
   </si>
   <si>
+    <t>v210064</t>
+  </si>
+  <si>
     <t>mq0072</t>
   </si>
   <si>
     <t>mq0066</t>
   </si>
   <si>
+    <t>v210065</t>
+  </si>
+  <si>
     <t>mq0073</t>
   </si>
   <si>
+    <t>v210066</t>
+  </si>
+  <si>
     <t>mq0074</t>
   </si>
   <si>
+    <t>v210067</t>
+  </si>
+  <si>
     <t>mq0075</t>
   </si>
   <si>
+    <t>v210068</t>
+  </si>
+  <si>
     <t>mq0077</t>
   </si>
   <si>
+    <t>v210069</t>
+  </si>
+  <si>
     <t>mq0078</t>
   </si>
   <si>
+    <t>v210070</t>
+  </si>
+  <si>
     <t>mq0079</t>
   </si>
   <si>
+    <t>v210071</t>
+  </si>
+  <si>
     <t>mq0080</t>
   </si>
   <si>
+    <t>v210072</t>
+  </si>
+  <si>
     <t>mq0081</t>
   </si>
   <si>
+    <t>v210073</t>
+  </si>
+  <si>
     <t>mq0082</t>
   </si>
   <si>
+    <t>v210074</t>
+  </si>
+  <si>
     <t>mq0083</t>
   </si>
   <si>
     <t>mq0076</t>
   </si>
   <si>
+    <t>v210075</t>
+  </si>
+  <si>
     <t>mq0084</t>
   </si>
   <si>
+    <t>v210076</t>
+  </si>
+  <si>
     <t>mq0085</t>
   </si>
   <si>
+    <t>v210077</t>
+  </si>
+  <si>
     <t>mq0086</t>
   </si>
   <si>
+    <t>v210078</t>
+  </si>
+  <si>
     <t>mq0087</t>
   </si>
   <si>
+    <t>v210079</t>
+  </si>
+  <si>
     <t>mq0088</t>
   </si>
   <si>
+    <t>v210080</t>
+  </si>
+  <si>
     <t>mq0089</t>
   </si>
   <si>
+    <t>v210081</t>
+  </si>
+  <si>
     <t>mq0090</t>
   </si>
   <si>
+    <t>v210082</t>
+  </si>
+  <si>
     <t>mq0091</t>
   </si>
   <si>
+    <t>v210083</t>
+  </si>
+  <si>
     <t>mq0092</t>
   </si>
   <si>
+    <t>v210084</t>
+  </si>
+  <si>
     <t>mq0093</t>
   </si>
   <si>
+    <t>v210085</t>
+  </si>
+  <si>
     <t>mq0094</t>
   </si>
   <si>
+    <t>v210086</t>
+  </si>
+  <si>
     <t>mq0095</t>
   </si>
   <si>
+    <t>v210087</t>
+  </si>
+  <si>
     <t>mq0096</t>
   </si>
   <si>
+    <t>v210088</t>
+  </si>
+  <si>
     <t>mq0097</t>
   </si>
   <si>
+    <t>v210089</t>
+  </si>
+  <si>
     <t>mq0098</t>
   </si>
   <si>
+    <t>v210090</t>
+  </si>
+  <si>
     <t>mq0099</t>
   </si>
   <si>
+    <t>v210091</t>
+  </si>
+  <si>
     <t>mq0100</t>
   </si>
   <si>
+    <t>v210092</t>
+  </si>
+  <si>
     <t>xyy0201</t>
   </si>
   <si>
+    <t>v210093</t>
+  </si>
+  <si>
     <t>xyy0202</t>
   </si>
   <si>
+    <t>v210094</t>
+  </si>
+  <si>
     <t>xyy0203</t>
   </si>
   <si>
+    <t>v210095</t>
+  </si>
+  <si>
     <t>xyy0204</t>
   </si>
   <si>
+    <t>v210096</t>
+  </si>
+  <si>
     <t>xyy0205</t>
   </si>
   <si>
+    <t>v210097</t>
+  </si>
+  <si>
     <t>xyy0206</t>
   </si>
   <si>
+    <t>v210098</t>
+  </si>
+  <si>
     <t>xyy0207</t>
   </si>
   <si>
+    <t>v210099</t>
+  </si>
+  <si>
     <t>xyy0208</t>
+  </si>
+  <si>
+    <t>v210100</t>
   </si>
   <si>
     <t>xyy0209</t>
@@ -659,9 +1217,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -679,32 +1237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,7 +1252,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,8 +1295,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,15 +1350,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -770,14 +1367,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -785,39 +1374,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,13 +1390,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +1426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,19 +1444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,13 +1474,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,19 +1534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,79 +1564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,6 +1610,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1070,8 +1637,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,17 +1687,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,42 +1707,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1167,143 +1725,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1652,75 +2210,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1733,14 +2243,504 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7777777777778" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1749,1576 +2749,1882 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A203" sqref="$A203:$XFD226"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="10.7777777777778" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>98</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>99</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>105</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>107</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>109</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>113</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>115</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>117</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>119</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>121</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>124</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>126</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>128</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>130</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>132</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>134</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>136</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>139</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>142</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>144</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>146</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>148</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>150</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>152</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>154</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>156</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>158</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>160</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>162</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>164</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>166</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>168</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>170</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>172</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>174</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>176</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>178</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>180</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>182</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>184</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>186</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>189</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>191</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>193</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>195</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>197</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>199</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>201</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>203</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>205</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>207</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>209</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>211</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>213</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>215</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>217</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>219</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>221</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>223</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>225</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>227</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>229</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>232</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>235</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>237</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>239</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>241</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>243</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>245</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>247</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>249</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>251</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>253</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>95</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>256</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>96</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>258</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>97</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>260</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>262</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>99</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>264</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>100</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>266</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>101</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>268</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>270</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>103</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>272</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>104</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>274</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>105</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>276</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>106</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>278</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>107</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>280</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>282</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>109</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>284</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>110</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>286</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>111</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>288</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>112</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>290</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>113</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>114</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>294</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>115</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>296</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>116</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>298</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>117</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>300</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>118</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>302</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>119</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>112</v>
+        <v>304</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>120</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>113</v>
+        <v>306</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>121</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>114</v>
+        <v>307</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>122</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>115</v>
+        <v>308</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>123</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>116</v>
+        <v>309</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>124</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>310</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>125</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>118</v>
+        <v>311</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>126</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>119</v>
+        <v>312</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>127</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>120</v>
+        <v>313</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>128</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>314</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>129</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>315</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>130</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>316</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>131</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>124</v>
+        <v>317</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>132</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>133</v>
+        <v>318</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>134</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>125</v>
+        <v>320</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>135</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>136</v>
+        <v>321</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>137</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>126</v>
+        <v>323</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>138</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>127</v>
+        <v>324</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>139</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>128</v>
+        <v>325</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>140</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>129</v>
+        <v>326</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>141</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>130</v>
+        <v>327</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>142</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>143</v>
+        <v>328</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>144</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>131</v>
+        <v>330</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>145</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>132</v>
+        <v>331</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>146</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>134</v>
+        <v>332</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>147</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>135</v>
+        <v>333</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>148</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>137</v>
+        <v>334</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>149</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>138</v>
+        <v>335</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>150</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>139</v>
+        <v>336</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>151</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>140</v>
+        <v>337</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>152</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>141</v>
+        <v>338</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>153</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>142</v>
+        <v>339</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>154</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>144</v>
+        <v>340</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>155</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>145</v>
+        <v>341</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>156</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>146</v>
+        <v>342</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>157</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>147</v>
+        <v>343</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>158</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>148</v>
+        <v>344</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>159</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>149</v>
+        <v>345</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>160</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>150</v>
+        <v>346</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>161</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>151</v>
+        <v>347</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>162</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>152</v>
+        <v>348</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>163</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>153</v>
+        <v>349</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>164</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>154</v>
+        <v>350</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>165</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>155</v>
+        <v>351</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>166</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>156</v>
+        <v>352</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>167</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>157</v>
+        <v>353</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>168</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>158</v>
+        <v>354</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>169</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>159</v>
+        <v>355</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>170</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>160</v>
+        <v>356</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>171</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>161</v>
+        <v>357</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>172</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>162</v>
+        <v>358</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>173</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>163</v>
+        <v>359</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>174</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>164</v>
+        <v>360</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>175</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>165</v>
+        <v>361</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>176</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>177</v>
+        <v>362</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>178</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>166</v>
+        <v>364</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>179</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>167</v>
+        <v>365</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>180</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>168</v>
+        <v>366</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>181</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>169</v>
+        <v>367</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>182</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>170</v>
+        <v>368</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>183</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>171</v>
+        <v>369</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>184</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>172</v>
+        <v>370</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>185</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>173</v>
+        <v>371</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>186</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>174</v>
+        <v>372</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>187</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>175</v>
+        <v>373</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>188</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>176</v>
+        <v>374</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>189</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>178</v>
+        <v>375</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>190</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>179</v>
+        <v>376</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>191</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>180</v>
+        <v>377</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>192</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>181</v>
+        <v>378</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>193</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>182</v>
+        <v>379</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>194</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>183</v>
+        <v>380</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>195</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>184</v>
+        <v>381</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>196</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>185</v>
+        <v>382</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>197</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>186</v>
+        <v>383</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>198</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>187</v>
+        <v>384</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>199</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>188</v>
+        <v>385</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>200</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>189</v>
+        <v>386</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>201</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>190</v>
+        <v>387</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>202</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>191</v>
+        <v>388</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>203</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>192</v>
+        <v>389</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>204</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>193</v>
+        <v>390</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>205</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>194</v>
+        <v>391</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>206</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>195</v>
+        <v>392</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>207</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>196</v>
+        <v>393</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>208</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>197</v>
+        <v>394</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>209</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>198</v>
+        <v>395</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>210</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>199</v>
+        <v>396</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" s="2" t="s">
-        <v>211</v>
+      <c r="B189" s="3" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="190" spans="2:2">
-      <c r="B190" s="2" t="s">
-        <v>200</v>
+      <c r="B190" s="3" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="191" spans="2:2">
-      <c r="B191" s="2" t="s">
-        <v>201</v>
+      <c r="B191" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="2" t="s">
-        <v>202</v>
+      <c r="B192" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="193" spans="2:2">
-      <c r="B193" s="2" t="s">
-        <v>203</v>
+      <c r="B193" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="194" spans="2:2">
-      <c r="B194" s="2" t="s">
-        <v>204</v>
+      <c r="B194" s="3" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="195" spans="2:2">
-      <c r="B195" s="2" t="s">
-        <v>205</v>
+      <c r="B195" s="3" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="196" spans="2:2">
-      <c r="B196" s="2" t="s">
-        <v>206</v>
+      <c r="B196" s="3" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="197" spans="2:2">
-      <c r="B197" s="2" t="s">
-        <v>207</v>
+      <c r="B197" s="3" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="198" spans="2:2">
-      <c r="B198" s="2" t="s">
-        <v>208</v>
+      <c r="B198" s="3" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="199" spans="2:2">
-      <c r="B199" s="2" t="s">
-        <v>209</v>
+      <c r="B199" s="3" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="200" spans="2:2">
-      <c r="B200" s="2" t="s">
-        <v>210</v>
+      <c r="B200" s="3" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
